--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H2">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J2">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.133769566778986</v>
+        <v>0.150777</v>
       </c>
       <c r="N2">
-        <v>0.133769566778986</v>
+        <v>0.452331</v>
       </c>
       <c r="O2">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="P2">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="Q2">
-        <v>1.591306243657707</v>
+        <v>3.157921937676</v>
       </c>
       <c r="R2">
-        <v>1.591306243657707</v>
+        <v>28.421297439084</v>
       </c>
       <c r="S2">
-        <v>0.005417962121092045</v>
+        <v>0.007154932563684429</v>
       </c>
       <c r="T2">
-        <v>0.005417962121092045</v>
+        <v>0.007154932563684427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H3">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J3">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0613581945678</v>
+        <v>12.30706533333333</v>
       </c>
       <c r="N3">
-        <v>12.0613581945678</v>
+        <v>36.921196</v>
       </c>
       <c r="O3">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222844</v>
       </c>
       <c r="P3">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222843</v>
       </c>
       <c r="Q3">
-        <v>143.4804273061524</v>
+        <v>257.7631310116604</v>
       </c>
       <c r="R3">
-        <v>143.4804273061524</v>
+        <v>2319.868179104944</v>
       </c>
       <c r="S3">
-        <v>0.488511575544379</v>
+        <v>0.584016279119882</v>
       </c>
       <c r="T3">
-        <v>0.488511575544379</v>
+        <v>0.5840162791198817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8958764835268</v>
+        <v>20.94432133333333</v>
       </c>
       <c r="H4">
-        <v>11.8958764835268</v>
+        <v>62.832964</v>
       </c>
       <c r="I4">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668299</v>
       </c>
       <c r="J4">
-        <v>0.6196206803428193</v>
+        <v>0.7396577289668298</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.10331621523327</v>
+        <v>3.129079333333333</v>
       </c>
       <c r="N4">
-        <v>3.10331621523327</v>
+        <v>9.387238</v>
       </c>
       <c r="O4">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="P4">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="Q4">
-        <v>36.91666638574085</v>
+        <v>65.53644303482578</v>
       </c>
       <c r="R4">
-        <v>36.91666638574085</v>
+        <v>589.827987313432</v>
       </c>
       <c r="S4">
-        <v>0.1256911426773482</v>
+        <v>0.1484865172832636</v>
       </c>
       <c r="T4">
-        <v>0.1256911426773482</v>
+        <v>0.1484865172832635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H5">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J5">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.133769566778986</v>
+        <v>0.150777</v>
       </c>
       <c r="N5">
-        <v>0.133769566778986</v>
+        <v>0.452331</v>
       </c>
       <c r="O5">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="P5">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="Q5">
-        <v>0.309436654162409</v>
+        <v>0.350872352556</v>
       </c>
       <c r="R5">
-        <v>0.309436654162409</v>
+        <v>3.157851173004</v>
       </c>
       <c r="S5">
-        <v>0.001053547095545747</v>
+        <v>0.0007949746923912277</v>
       </c>
       <c r="T5">
-        <v>0.001053547095545747</v>
+        <v>0.0007949746923912276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H6">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J6">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0613581945678</v>
+        <v>12.30706533333333</v>
       </c>
       <c r="N6">
-        <v>12.0613581945678</v>
+        <v>36.921196</v>
       </c>
       <c r="O6">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222844</v>
       </c>
       <c r="P6">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222843</v>
       </c>
       <c r="Q6">
-        <v>27.90041422910337</v>
+        <v>28.63970609951823</v>
       </c>
       <c r="R6">
-        <v>27.90041422910337</v>
+        <v>257.757354895664</v>
       </c>
       <c r="S6">
-        <v>0.09499327238772215</v>
+        <v>0.06488924356901524</v>
       </c>
       <c r="T6">
-        <v>0.09499327238772215</v>
+        <v>0.06488924356901522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.31320667034573</v>
+        <v>2.327094666666667</v>
       </c>
       <c r="H7">
-        <v>2.31320667034573</v>
+        <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311259</v>
       </c>
       <c r="J7">
-        <v>0.1204880273293012</v>
+        <v>0.08218235047311258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.10331621523327</v>
+        <v>3.129079333333333</v>
       </c>
       <c r="N7">
-        <v>3.10331621523327</v>
+        <v>9.387238</v>
       </c>
       <c r="O7">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="P7">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="Q7">
-        <v>7.178611769269665</v>
+        <v>7.28166382817689</v>
       </c>
       <c r="R7">
-        <v>7.178611769269665</v>
+        <v>65.534974453592</v>
       </c>
       <c r="S7">
-        <v>0.02444120784603334</v>
+        <v>0.01649813221170613</v>
       </c>
       <c r="T7">
-        <v>0.02444120784603334</v>
+        <v>0.01649813221170612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H8">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J8">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.133769566778986</v>
+        <v>0.150777</v>
       </c>
       <c r="N8">
-        <v>0.133769566778986</v>
+        <v>0.452331</v>
       </c>
       <c r="O8">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="P8">
-        <v>0.008743998212090716</v>
+        <v>0.009673301965868179</v>
       </c>
       <c r="Q8">
-        <v>0.6674513121879821</v>
+        <v>0.760642523586</v>
       </c>
       <c r="R8">
-        <v>0.6674513121879821</v>
+        <v>6.845782712274</v>
       </c>
       <c r="S8">
-        <v>0.002272488995452923</v>
+        <v>0.001723394709792523</v>
       </c>
       <c r="T8">
-        <v>0.002272488995452923</v>
+        <v>0.001723394709792523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H9">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J9">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0613581945678</v>
+        <v>12.30706533333333</v>
       </c>
       <c r="N9">
-        <v>12.0613581945678</v>
+        <v>36.921196</v>
       </c>
       <c r="O9">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222844</v>
       </c>
       <c r="P9">
-        <v>0.7884042464078166</v>
+        <v>0.7895763895222843</v>
       </c>
       <c r="Q9">
-        <v>60.18087332998817</v>
+        <v>62.086904720776</v>
       </c>
       <c r="R9">
-        <v>60.18087332998817</v>
+        <v>558.7821424869841</v>
       </c>
       <c r="S9">
-        <v>0.2048993984757154</v>
+        <v>0.1406708668333872</v>
       </c>
       <c r="T9">
-        <v>0.2048993984757154</v>
+        <v>0.1406708668333872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.98956024348008</v>
+        <v>5.044818</v>
       </c>
       <c r="H10">
-        <v>4.98956024348008</v>
+        <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="J10">
-        <v>0.2598912923278794</v>
+        <v>0.1781599205600575</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.10331621523327</v>
+        <v>3.129079333333333</v>
       </c>
       <c r="N10">
-        <v>3.10331621523327</v>
+        <v>9.387238</v>
       </c>
       <c r="O10">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="P10">
-        <v>0.2028517553800927</v>
+        <v>0.2007503085118475</v>
       </c>
       <c r="Q10">
-        <v>15.48418321047499</v>
+        <v>15.785635744228</v>
       </c>
       <c r="R10">
-        <v>15.48418321047499</v>
+        <v>142.070721698052</v>
       </c>
       <c r="S10">
-        <v>0.05271940485671116</v>
+        <v>0.03576565901687779</v>
       </c>
       <c r="T10">
-        <v>0.05271940485671116</v>
+        <v>0.03576565901687779</v>
       </c>
     </row>
   </sheetData>
